--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -99,6 +99,45 @@
   </si>
   <si>
     <t>Projektjournal TNT</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Nico, Tim</t>
+  </si>
+  <si>
+    <t>Daten definieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nico und Tim hat die erste Version des Pflichtenhefts erarbeitet. </t>
+  </si>
+  <si>
+    <t>Elias hat definiert was für Daten wir abspeichern werden.</t>
+  </si>
+  <si>
+    <t>Die Arbeit ging relativ schnell voran.</t>
+  </si>
+  <si>
+    <t>Uneinigkeiten bei den Anforderungen am Pflichtenheft. Überarbeitung nötig.</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disskussion </t>
+  </si>
+  <si>
+    <t>Nico besprach mit Herr Daniel Mosimann etwas.</t>
+  </si>
+  <si>
+    <t>Wir wissen nicht was.</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Tim besprach mit Herr Daniel Mosimann etwas.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -215,11 +254,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F98"/>
+  <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -554,26 +594,44 @@
     <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -592,8 +650,11 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43333</v>
       </c>
@@ -612,8 +673,11 @@
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>43340</v>
       </c>
@@ -632,8 +696,11 @@
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>43340</v>
       </c>
@@ -643,7 +710,7 @@
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -652,8 +719,11 @@
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>43340</v>
       </c>
@@ -672,10 +742,13 @@
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>43712</v>
+        <v>43347</v>
       </c>
       <c r="B13" s="10">
         <v>270</v>
@@ -692,80 +765,158 @@
       <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>43354</v>
+      </c>
+      <c r="B14" s="10">
+        <v>125</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43354</v>
+      </c>
+      <c r="B15" s="10">
+        <v>90</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>43354</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>43354</v>
+      </c>
+      <c r="B17" s="10">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -773,7 +924,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -781,7 +932,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -789,7 +940,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -797,7 +948,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -805,7 +956,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -813,7 +964,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -821,7 +972,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -829,7 +980,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -837,7 +988,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Tim besprach mit Herr Daniel Mosimann etwas.</t>
+  </si>
+  <si>
+    <t>Nico und Tim besprachem mit Herr Daniel Mosimann etwas.</t>
+  </si>
+  <si>
+    <t>Ich weiss nicht was.</t>
   </si>
 </sst>
 </file>
@@ -580,8 +586,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,7 +621,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -862,12 +868,24 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="9">
+        <v>43361</v>
+      </c>
+      <c r="B18" s="10">
+        <v>90</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Ging gut und schnell voran, sobald Elias den Arbeitsplan von  Tim hatte.</t>
+  </si>
+  <si>
+    <t>Zeitplan / arbeitsplan überarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias hat den Projektplan auf Feedback von Herr Mosimann angepasst. </t>
+  </si>
+  <si>
+    <t>Musste Zeiten überdenken. Vielleicht muss ich diesen noch anpassen.</t>
   </si>
 </sst>
 </file>
@@ -616,8 +625,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,7 +634,7 @@
     <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="56.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
   </cols>
@@ -651,7 +660,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>23.25</v>
+        <v>24.75</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -987,13 +996,25 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>43403</v>
+      </c>
+      <c r="B22" s="10">
+        <v>90</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>Musste Zeiten überdenken. Vielleicht muss ich diesen noch anpassen.</t>
+  </si>
+  <si>
+    <t>Konzept begonnen</t>
+  </si>
+  <si>
+    <t>Tim und Nico haben mit dem Konzept begonnen.</t>
+  </si>
+  <si>
+    <t>Zuerst einige Unklarheiten, die nach Absprache im Team aus dem Weg geräumt werden konnten.</t>
+  </si>
+  <si>
+    <t>Elias, Tim, Nico</t>
+  </si>
+  <si>
+    <t>Konzept weiterarbeiten</t>
+  </si>
+  <si>
+    <t>Heute haben wir intensiv am Konzept weitergearbeitet. Wir konnten die Struktur beenden.</t>
   </si>
 </sst>
 </file>
@@ -625,8 +643,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,7 +678,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>24.75</v>
+        <v>32.25</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1019,20 +1037,42 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="4"/>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>43403</v>
+      </c>
+      <c r="B23" s="10">
+        <v>180</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>43410</v>
+      </c>
+      <c r="B24" s="10">
+        <v>270</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\GitHub\tnt\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAATOEL1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="4716"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Heute haben wir intensiv am Konzept weitergearbeitet. Wir konnten die Struktur beenden.</t>
+  </si>
+  <si>
+    <t>Elias, Nico</t>
+  </si>
+  <si>
+    <t>Konzept abschliessen</t>
+  </si>
+  <si>
+    <t>Heute konnten wir das Konzept fertig abschliessen. Zudem haben wir alle Dokumente auf den neusten Stand gebracht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es gab noch einige Unklarheiten beim Inhalt des Konzeptes. Jedoch konnte wir anhand der Aufgabestellung diese aus dem Weg räumen. </t>
   </si>
 </sst>
 </file>
@@ -644,20 +656,20 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -667,34 +679,34 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>32.25</v>
+        <v>35.583333333333336</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -717,7 +729,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43333</v>
       </c>
@@ -740,7 +752,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43340</v>
       </c>
@@ -763,7 +775,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>43340</v>
       </c>
@@ -786,7 +798,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43340</v>
       </c>
@@ -809,7 +821,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43347</v>
       </c>
@@ -832,7 +844,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>43354</v>
       </c>
@@ -855,7 +867,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43354</v>
       </c>
@@ -878,7 +890,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>43354</v>
       </c>
@@ -901,7 +913,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43354</v>
       </c>
@@ -924,7 +936,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>43361</v>
       </c>
@@ -947,7 +959,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>43361</v>
       </c>
@@ -968,7 +980,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>43368</v>
       </c>
@@ -991,7 +1003,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>43368</v>
       </c>
@@ -1014,7 +1026,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>43403</v>
       </c>
@@ -1037,7 +1049,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43403</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43410</v>
       </c>
@@ -1075,15 +1087,27 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43413</v>
+      </c>
+      <c r="B25" s="10">
+        <v>200</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1091,7 +1115,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1099,7 +1123,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1107,7 +1131,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1115,7 +1139,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1123,7 +1147,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1131,7 +1155,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1139,7 +1163,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1147,7 +1171,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1155,7 +1179,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1163,7 +1187,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1171,7 +1195,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1179,7 +1203,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1187,7 +1211,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1195,7 +1219,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1203,7 +1227,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1211,7 +1235,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1219,7 +1243,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1227,7 +1251,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1235,7 +1259,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1243,7 +1267,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1251,7 +1275,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1259,7 +1283,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1267,7 +1291,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1275,7 +1299,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1283,7 +1307,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1291,7 +1315,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1299,7 +1323,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1307,7 +1331,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1315,7 +1339,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1323,7 +1347,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1331,7 +1355,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1339,7 +1363,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1347,7 +1371,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1355,7 +1379,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1363,7 +1387,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1371,7 +1395,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1379,7 +1403,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1387,7 +1411,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1395,7 +1419,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1403,7 +1427,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1411,7 +1435,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1419,7 +1443,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1427,7 +1451,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1435,7 +1459,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1443,7 +1467,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1451,7 +1475,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1459,7 +1483,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1467,7 +1491,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1475,7 +1499,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1483,7 +1507,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1491,7 +1515,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1499,7 +1523,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1507,7 +1531,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1515,7 +1539,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1523,7 +1547,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1531,7 +1555,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1539,7 +1563,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1547,7 +1571,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1555,7 +1579,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -1563,7 +1587,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -1571,7 +1595,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -1579,7 +1603,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -1587,7 +1611,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -1595,7 +1619,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -1603,7 +1627,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -1611,7 +1635,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -1619,7 +1643,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -1627,7 +1651,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -1635,7 +1659,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -1643,7 +1667,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -1651,7 +1675,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -1659,7 +1683,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1687,10 +1711,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1701,10 +1726,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAATOEL1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\GitHub\tnt\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="4716"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t xml:space="preserve">Es gab noch einige Unklarheiten beim Inhalt des Konzeptes. Jedoch konnte wir anhand der Aufgabestellung diese aus dem Weg räumen. </t>
+  </si>
+  <si>
+    <t>Elias,Tim,Nico</t>
+  </si>
+  <si>
+    <t>Detailspezifikationen beginnen</t>
+  </si>
+  <si>
+    <t>Heute haben wir mit den Detailspezifikationen begonnen. Wir konnte schon einige Anforderungen festhalten.</t>
+  </si>
+  <si>
+    <t>Detailspezifikationen weiterführen</t>
+  </si>
+  <si>
+    <t>Heute haben wir weiter an den Detailspezifikationen gearbeitet.</t>
   </si>
 </sst>
 </file>
@@ -656,20 +671,20 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="56.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -679,34 +694,34 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>35.583333333333336</v>
+        <v>44.583333333333336</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -729,7 +744,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>43333</v>
       </c>
@@ -752,7 +767,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>43340</v>
       </c>
@@ -775,7 +790,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>43340</v>
       </c>
@@ -798,7 +813,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>43340</v>
       </c>
@@ -821,7 +836,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>43347</v>
       </c>
@@ -844,7 +859,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>43354</v>
       </c>
@@ -867,7 +882,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>43354</v>
       </c>
@@ -890,7 +905,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>43354</v>
       </c>
@@ -913,7 +928,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43354</v>
       </c>
@@ -936,7 +951,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>43361</v>
       </c>
@@ -959,7 +974,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>43361</v>
       </c>
@@ -980,7 +995,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>43368</v>
       </c>
@@ -1003,7 +1018,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43368</v>
       </c>
@@ -1026,7 +1041,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>43403</v>
       </c>
@@ -1049,7 +1064,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>43403</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>43410</v>
       </c>
@@ -1087,7 +1102,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43413</v>
       </c>
@@ -1107,23 +1122,47 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>43417</v>
+      </c>
+      <c r="B26" s="10">
+        <v>270</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>43424</v>
+      </c>
+      <c r="B27" s="10">
+        <v>270</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1131,7 +1170,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1139,7 +1178,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1147,7 +1186,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1155,7 +1194,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1163,7 +1202,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1171,7 +1210,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1179,7 +1218,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1187,7 +1226,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1195,7 +1234,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1203,7 +1242,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1211,7 +1250,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1219,7 +1258,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1227,7 +1266,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1235,7 +1274,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1243,7 +1282,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1251,7 +1290,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1259,7 +1298,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1267,7 +1306,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1275,7 +1314,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1283,7 +1322,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1291,7 +1330,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1299,7 +1338,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1307,7 +1346,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1315,7 +1354,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1323,7 +1362,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1331,7 +1370,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1339,7 +1378,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1347,7 +1386,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1355,7 +1394,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1363,7 +1402,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1371,7 +1410,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1379,7 +1418,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1387,7 +1426,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1395,7 +1434,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1403,7 +1442,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1411,7 +1450,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1419,7 +1458,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1427,7 +1466,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1435,7 +1474,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1443,7 +1482,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1451,7 +1490,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1459,7 +1498,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1467,7 +1506,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1475,7 +1514,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1483,7 +1522,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1491,7 +1530,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1499,7 +1538,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1507,7 +1546,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1515,7 +1554,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1523,7 +1562,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1531,7 +1570,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1539,7 +1578,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1547,7 +1586,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1555,7 +1594,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1563,7 +1602,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1571,7 +1610,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1579,7 +1618,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -1587,7 +1626,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -1595,7 +1634,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -1603,7 +1642,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -1611,7 +1650,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -1619,7 +1658,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -1627,7 +1666,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -1635,7 +1674,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -1643,7 +1682,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -1651,7 +1690,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -1659,7 +1698,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -1667,7 +1706,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -1675,7 +1714,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -1683,7 +1722,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1711,7 +1750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -1726,7 +1765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Heute haben wir weiter an den Detailspezifikationen gearbeitet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmaufbau besprochen, einzelne Use-Cases definiert. </t>
+  </si>
+  <si>
+    <t>Heute schleichend voran, da noch einige Punkte zuerst abgeklärt werden müssten. Jedoch konnten wir auch die Arbeitsaufteilung der Realisierung absprechen.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -705,7 +711,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>44.583333333333336</v>
+        <v>49.083333333333336</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1162,13 +1168,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>43431</v>
+      </c>
+      <c r="B28" s="10">
+        <v>270</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Heute schleichend voran, da noch einige Punkte zuerst abgeklärt werden müssten. Jedoch konnten wir auch die Arbeitsaufteilung der Realisierung absprechen.</t>
+  </si>
+  <si>
+    <t>Detailspezifikation weiterführen</t>
+  </si>
+  <si>
+    <t>Weitere Use-Cases definiert</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -711,7 +717,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>49.083333333333336</v>
+        <v>53.583333333333336</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1189,12 +1195,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="9">
+        <v>43438</v>
+      </c>
+      <c r="B29" s="10">
+        <v>270</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>Weitere Use-Cases definiert</t>
+  </si>
+  <si>
+    <t>Datenbanklayout definiert</t>
+  </si>
+  <si>
+    <t>GUI Design erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elias, Tim, Nico</t>
+  </si>
+  <si>
+    <t>Dokument fertigstellen.</t>
   </si>
 </sst>
 </file>
@@ -682,8 +694,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -717,7 +729,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>53.583333333333336</v>
+        <v>67.083333333333329</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1215,27 +1227,61 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="9">
+        <v>43445</v>
+      </c>
+      <c r="B30" s="10">
+        <v>270</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="9">
+        <v>43452</v>
+      </c>
+      <c r="B31" s="10">
+        <v>270</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="9">
+        <v>43473</v>
+      </c>
+      <c r="B32" s="10">
+        <v>270</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\GitHub\tnt\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\git\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Datum</t>
   </si>
@@ -252,6 +252,21 @@
   </si>
   <si>
     <t>Dokument fertigstellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realisation gegplant </t>
+  </si>
+  <si>
+    <t>Wir haben die Arbeitschritte unter uns aufgeteilt</t>
+  </si>
+  <si>
+    <t>Zuerst gab es Unstimmigkeiten bezüglech, wer welche Arbeitsteile übernehmen muss. Jedoch konnten wir uns einigen.</t>
+  </si>
+  <si>
+    <t>Realisation begonnen</t>
+  </si>
+  <si>
+    <t>Heute haben wir mit dem GUI begonnen.</t>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,7 +744,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>67.083333333333329</v>
+        <v>76.083333333333329</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1284,21 +1299,45 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>43480</v>
+      </c>
+      <c r="B33" s="10">
+        <v>270</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="9">
+        <v>43515</v>
+      </c>
+      <c r="B34" s="10">
+        <v>270</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\git\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Downloads\tnt-master\tnt-master\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Datum</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>Heute haben wir mit dem GUI begonnen.</t>
+  </si>
+  <si>
+    <t>Realisierung</t>
+  </si>
+  <si>
+    <t>Heute konnten wir das GUI weiterführen. Einzelne Seiten sind schon fertig. Das Datenbank-Schema konnte auch schon umgesetzt werden.</t>
+  </si>
+  <si>
+    <t>Zuerst gabs Probleme beim Anmelden am Computer, jedoch konnte dies anschliessend behoben werden. Da Nico noch sein eigenes Notebook dabei hatte, konnte er schon weiterprogrammieren.</t>
+  </si>
+  <si>
+    <t>Heute kamen wir gut voran, und sehen bei der fertigstellung des Projektes keine Probleme.</t>
   </si>
 </sst>
 </file>
@@ -709,8 +721,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,7 +756,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>76.083333333333329</v>
+        <v>80.583333333333329</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1319,7 +1331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>43515</v>
       </c>
@@ -1336,16 +1348,28 @@
         <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>43522</v>
+      </c>
+      <c r="B35" s="10">
+        <v>270</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>Datum</t>
   </si>
@@ -257,16 +257,46 @@
     <t xml:space="preserve">Realisation gegplant </t>
   </si>
   <si>
-    <t>Wir haben die Arbeitschritte unter uns aufgeteilt</t>
-  </si>
-  <si>
     <t>Zuerst gab es Unstimmigkeiten bezüglech, wer welche Arbeitsteile übernehmen muss. Jedoch konnten wir uns einigen.</t>
   </si>
   <si>
     <t>Realisation begonnen</t>
   </si>
   <si>
-    <t>Heute haben wir mit dem GUI begonnen.</t>
+    <t>Wir haben die Arbeitschritte unter uns aufgeteilt und das Datenbank-Modell umgesetzt.</t>
+  </si>
+  <si>
+    <t>Heute haben wir mit dem GUI begonnen. Zudem haben wir mit der Umsetzung der Navigation begonnen.</t>
+  </si>
+  <si>
+    <t>GUI und Datenbank API Service weiterführen</t>
+  </si>
+  <si>
+    <t>Nico und Elias haben in der Freizeit weiter am GUI und an den Datenbank API Services weitergearbeitet.</t>
+  </si>
+  <si>
+    <t>Elias hatte zuerst Schwierigkeiten, da dieser sich nicht mit Laravel auskennt. Nico konnte Elias dabei noch weiterhelfen.</t>
+  </si>
+  <si>
+    <t>Elias, Nico, Tim</t>
+  </si>
+  <si>
+    <t>GUI und Datenbank API Service abschliessen.</t>
+  </si>
+  <si>
+    <t>Durch Nico konnte Elias und Tim noch einiges über PHP Laravel lernen.</t>
+  </si>
+  <si>
+    <t>Heute konnte Nico das GUI und die Datenbank API Service abschliessen. Zudem haben wir noch die Arbeitsaufteilung der Umsetzung der Navigation vollzogen</t>
+  </si>
+  <si>
+    <t>Administratives nachführen</t>
+  </si>
+  <si>
+    <t>Heute konnten wir, wegen eines Wegfallens durch Tim und Nico, nicht weiter an der Realisation arbeiten. Elias hat einige administrative Arbeiten, wie den Zeitplan und das Arbeitsjournal, nachführen können.</t>
+  </si>
+  <si>
+    <t>Der Wegfall von Tim und Nico, könnte dafür sorgen, dass dies erst nächste Woche aufarbeiten können. Dies Verschiebt unsere Planung, fällt jedoch nicht sehr gravierend auf.</t>
   </si>
 </sst>
 </file>
@@ -709,8 +739,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -718,7 +748,7 @@
     <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="56.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.28515625" style="1" customWidth="1"/>
   </cols>
@@ -744,7 +774,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>76.083333333333329</v>
+        <v>88.166666666666671</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1313,13 +1343,13 @@
         <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>43515</v>
       </c>
@@ -1330,7 +1360,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>81</v>
@@ -1339,29 +1369,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>43517</v>
+      </c>
+      <c r="B35" s="10">
+        <v>300</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>43522</v>
+      </c>
+      <c r="B36" s="10">
+        <v>270</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>43509</v>
+      </c>
+      <c r="B37" s="10">
+        <v>155</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\git\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ss002207\TAASCTI5$\Documents\GitHub\tnt\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Datum</t>
   </si>
@@ -297,6 +297,27 @@
   </si>
   <si>
     <t>Der Wegfall von Tim und Nico, könnte dafür sorgen, dass dies erst nächste Woche aufarbeiten können. Dies Verschiebt unsere Planung, fällt jedoch nicht sehr gravierend auf.</t>
+  </si>
+  <si>
+    <t>Tim, Elias</t>
+  </si>
+  <si>
+    <t>Add design to Website</t>
+  </si>
+  <si>
+    <t>Da Nico nicht da war fehlte uns das technische know-how um gross an der Logik weiter zu arbeiten.</t>
+  </si>
+  <si>
+    <t>Wir designten unsere Website, damit sie schön aussieht.</t>
+  </si>
+  <si>
+    <t>Nico, Tim, Elias</t>
+  </si>
+  <si>
+    <t>Add Logik zum Forum, Test-Cases beschreiben</t>
+  </si>
+  <si>
+    <t>Wir fingen an erste Test-Cases zu beschreiben und diese sogleich zu testen. Zusätzlich hat Nico und Elias die Kommentarfunktion unseres Forum eingefügt.</t>
   </si>
 </sst>
 </file>
@@ -739,8 +760,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,7 +795,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>88.166666666666671</v>
+        <v>94.166666666666671</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1411,7 +1432,7 @@
     </row>
     <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
-        <v>43509</v>
+        <v>43536</v>
       </c>
       <c r="B37" s="10">
         <v>155</v>
@@ -1429,21 +1450,45 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>43543</v>
+      </c>
+      <c r="B38" s="10">
+        <v>180</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>43557</v>
+      </c>
+      <c r="B39" s="10">
+        <v>180</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Datum</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Wir fingen an erste Test-Cases zu beschreiben und diese sogleich zu testen. Zusätzlich hat Nico und Elias die Kommentarfunktion unseres Forum eingefügt.</t>
+  </si>
+  <si>
+    <t>Abschied von Nico, Realisierung Test-Konzept</t>
+  </si>
+  <si>
+    <t>Wir nahmen Abschied von unserem langjährigen Team-Kamerad Nico Schönbächler R.I.P. Ausserdem fiengen wir mit dem Test-Konzept für unsere Applikation an und definierten erste Testfälle</t>
+  </si>
+  <si>
+    <t>Der Abschied von Nico war hart und schmerzvoll, die Konzentration auf das wesentliche wurde durch die anhaltende Trauer beeinträchtigt.</t>
   </si>
 </sst>
 </file>
@@ -760,8 +769,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -795,7 +804,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>94.166666666666671</v>
+        <v>96.166666666666671</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1490,13 +1499,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>43578</v>
+      </c>
+      <c r="B40" s="10">
+        <v>120</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>

--- a/documentation/projektjournal-tnt.xlsx
+++ b/documentation/projektjournal-tnt.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Datum</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>Der Abschied von Nico war hart und schmerzvoll, die Konzentration auf das wesentliche wurde durch die anhaltende Trauer beeinträchtigt.</t>
+  </si>
+  <si>
+    <t>Leichte Fingerverstauchung durch das viele tippen.</t>
+  </si>
+  <si>
+    <t>Projekt aufsetzen, Fertigstellung Testkonzept</t>
+  </si>
+  <si>
+    <t>Das Projekt wurde aufgesetzt und die Test wurden angewendet. Das Testkonzept wurde fertig gestellt.</t>
   </si>
 </sst>
 </file>
@@ -769,8 +778,8 @@
   </sheetPr>
   <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F43:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -804,7 +813,7 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(B8:B5000)/60</f>
-        <v>96.166666666666671</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1519,13 +1528,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>43585</v>
+      </c>
+      <c r="B41" s="10">
+        <v>120</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
